--- a/biology/Médecine/Albert_Malherbe/Albert_Malherbe.xlsx
+++ b/biology/Médecine/Albert_Malherbe/Albert_Malherbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Malherbe est un médecin et chirurgien français né le 21 novembre 1845 à Nantes et mort le 16 octobre 1915 à Nantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Hippolyte Malherbe est le fils du Dr Jean-Baptiste-Léonce Malherbe, médecin en chef des Hôpitaux civils de Nantes, président de la Société académique de Nantes, et d'Armande Joséphine Rogier.
 Interne des hôpitaux de Paris et élève du professeur Félix Guyon, il obtient le prix Duval pour sa thèse De la Fièvre dans les maladies des voies urinaires, recherches sur ses rapports avec les affections du rein, publiée en 1872.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la Fièvre dans les maladies des voies urinaires, recherches sur ses rapports avec les affections du rein, 1872
 Recherches sur l'épithéliome calcifié des glandes sébacées : contribution à l'étude des tumeurs ossiformes de la peau. Paris : Octave Doin, 1882
